--- a/Code/Results/Cases/Case_3_149/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_149/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.58275326966223</v>
+        <v>21.10438315076156</v>
       </c>
       <c r="C2">
-        <v>5.187267980480346</v>
+        <v>3.322157870623979</v>
       </c>
       <c r="D2">
-        <v>5.5661189369606</v>
+        <v>3.815026433025047</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>69.31226336512232</v>
+        <v>68.51717879731122</v>
       </c>
       <c r="G2">
-        <v>2.19420779852167</v>
+        <v>3.827825372342945</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.711814686962135</v>
+        <v>11.52299371725909</v>
       </c>
       <c r="K2">
-        <v>11.21701008590708</v>
+        <v>17.16141890428164</v>
       </c>
       <c r="L2">
-        <v>5.707712578192221</v>
+        <v>11.3718091587387</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.01224481411877</v>
+        <v>21.11827868237029</v>
       </c>
       <c r="C3">
-        <v>4.875900701733657</v>
+        <v>3.182415127181045</v>
       </c>
       <c r="D3">
-        <v>5.307016860236089</v>
+        <v>3.77283583236601</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>66.45023073840957</v>
+        <v>67.67545219562973</v>
       </c>
       <c r="G3">
-        <v>2.205162067225693</v>
+        <v>3.831506445824125</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.645757176655995</v>
+        <v>11.51673320975796</v>
       </c>
       <c r="K3">
-        <v>10.82699399744668</v>
+        <v>17.19030646397591</v>
       </c>
       <c r="L3">
-        <v>5.740536830811029</v>
+        <v>11.41862372721977</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.66808070831924</v>
+        <v>21.13358792487648</v>
       </c>
       <c r="C4">
-        <v>4.677723900177035</v>
+        <v>3.092480779927253</v>
       </c>
       <c r="D4">
-        <v>5.143006079367481</v>
+        <v>3.748175983357865</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>64.66079891049881</v>
+        <v>67.15613894465271</v>
       </c>
       <c r="G4">
-        <v>2.212034916694666</v>
+        <v>3.833882159496253</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.606673637373315</v>
+        <v>11.51343679520299</v>
       </c>
       <c r="K4">
-        <v>10.59483389775897</v>
+        <v>17.21340605080329</v>
       </c>
       <c r="L4">
-        <v>5.765635199831376</v>
+        <v>11.44949937710048</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.52954018873971</v>
+        <v>21.14152853120866</v>
       </c>
       <c r="C5">
-        <v>4.595172030272727</v>
+        <v>3.054809695380171</v>
       </c>
       <c r="D5">
-        <v>5.074934262216291</v>
+        <v>3.738449963671115</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>63.92399752071805</v>
+        <v>66.94403437763405</v>
       </c>
       <c r="G5">
-        <v>2.214875270440678</v>
+        <v>3.834879443448906</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.591104698755367</v>
+        <v>11.51223138172048</v>
       </c>
       <c r="K5">
-        <v>10.50215555009412</v>
+        <v>17.22416451996093</v>
       </c>
       <c r="L5">
-        <v>5.777059845351737</v>
+        <v>11.46261781923382</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.50664410022977</v>
+        <v>21.14294977005848</v>
       </c>
       <c r="C6">
-        <v>4.581355229719112</v>
+        <v>3.048493255434859</v>
       </c>
       <c r="D6">
-        <v>5.06355652070449</v>
+        <v>3.736854750424613</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>63.80120991921991</v>
+        <v>66.90878982881756</v>
       </c>
       <c r="G6">
-        <v>2.215349375882982</v>
+        <v>3.835046806279481</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.588540733679809</v>
+        <v>11.51203955845483</v>
       </c>
       <c r="K6">
-        <v>10.4868856189332</v>
+        <v>17.22603209535286</v>
       </c>
       <c r="L6">
-        <v>5.779027879601802</v>
+        <v>11.46482853443361</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.66620514774325</v>
+        <v>21.13368812734735</v>
       </c>
       <c r="C7">
-        <v>4.676617875871242</v>
+        <v>3.091976848617787</v>
       </c>
       <c r="D7">
-        <v>5.142093036551251</v>
+        <v>3.74804349430644</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>64.65089217218049</v>
+        <v>67.15328018037408</v>
       </c>
       <c r="G7">
-        <v>2.212073058919949</v>
+        <v>3.833895490994919</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.60646223693046</v>
+        <v>11.51341997993826</v>
       </c>
       <c r="K7">
-        <v>10.59357607198725</v>
+        <v>17.21354570143606</v>
       </c>
       <c r="L7">
-        <v>5.765784489947294</v>
+        <v>11.44967412472681</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.38486402305078</v>
+        <v>21.10776666965025</v>
       </c>
       <c r="C8">
-        <v>5.081337246720736</v>
+        <v>3.27484137273966</v>
       </c>
       <c r="D8">
-        <v>5.47780024460246</v>
+        <v>3.800226855091859</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>68.33236075903521</v>
+        <v>68.22755569055819</v>
       </c>
       <c r="G8">
-        <v>2.197956022943591</v>
+        <v>3.829070698537482</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.688723447174552</v>
+        <v>11.52072157933398</v>
       </c>
       <c r="K8">
-        <v>11.08106684961471</v>
+        <v>17.17026457670861</v>
       </c>
       <c r="L8">
-        <v>5.717975477859446</v>
+        <v>11.38750872223888</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.83664520149648</v>
+        <v>21.11076217555098</v>
       </c>
       <c r="C9">
-        <v>5.821511178657222</v>
+        <v>3.600050706767215</v>
       </c>
       <c r="D9">
-        <v>6.097456600129052</v>
+        <v>3.911963204974226</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>75.28146392767182</v>
+        <v>70.30807762262626</v>
       </c>
       <c r="G9">
-        <v>2.171305029087899</v>
+        <v>3.820520733592817</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.862406022320551</v>
+        <v>11.5393758825632</v>
       </c>
       <c r="K9">
-        <v>12.09164440894265</v>
+        <v>17.12805805455895</v>
       </c>
       <c r="L9">
-        <v>5.665681020628369</v>
+        <v>11.28249488535362</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.92319314229921</v>
+        <v>21.1457782351442</v>
       </c>
       <c r="C10">
-        <v>6.336279598000037</v>
+        <v>3.817987084996174</v>
       </c>
       <c r="D10">
-        <v>6.530325344263173</v>
+        <v>3.999102783868744</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>80.21087693628368</v>
+        <v>71.8122709487286</v>
       </c>
       <c r="G10">
-        <v>2.152147438594061</v>
+        <v>3.814787485306405</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.998579376880388</v>
+        <v>11.55571359603225</v>
       </c>
       <c r="K10">
-        <v>12.8641305441901</v>
+        <v>17.12318249928035</v>
       </c>
       <c r="L10">
-        <v>5.655854526364275</v>
+        <v>11.21561422746843</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.42129839917564</v>
+        <v>21.16880881902725</v>
       </c>
       <c r="C11">
-        <v>6.565162052219</v>
+        <v>3.912477713400484</v>
       </c>
       <c r="D11">
-        <v>6.722827416197124</v>
+        <v>4.039683850802437</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>82.41540233419877</v>
+        <v>72.48952451255221</v>
       </c>
       <c r="G11">
-        <v>2.143471186049424</v>
+        <v>3.812296819165616</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.062654652784435</v>
+        <v>11.56371494097251</v>
       </c>
       <c r="K11">
-        <v>13.34938026976404</v>
+        <v>17.12665093280735</v>
       </c>
       <c r="L11">
-        <v>5.658395863372975</v>
+        <v>11.18741420755264</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.61048048905567</v>
+        <v>21.17854696324843</v>
       </c>
       <c r="C12">
-        <v>6.651174233926003</v>
+        <v>3.947584241158272</v>
       </c>
       <c r="D12">
-        <v>6.795137633173791</v>
+        <v>4.055172516015352</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>83.24494362350917</v>
+        <v>72.74483084958548</v>
       </c>
       <c r="G12">
-        <v>2.140186224394352</v>
+        <v>3.811370434348276</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.087250095289551</v>
+        <v>11.56682637344614</v>
       </c>
       <c r="K12">
-        <v>13.54782108930439</v>
+        <v>17.12878174084353</v>
       </c>
       <c r="L12">
-        <v>5.660439832832031</v>
+        <v>11.17705512057089</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.56971115391293</v>
+        <v>21.17640453068202</v>
       </c>
       <c r="C13">
-        <v>6.632677593069667</v>
+        <v>3.940053531244382</v>
       </c>
       <c r="D13">
-        <v>6.77958951587471</v>
+        <v>4.051831572519639</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>83.06651675367401</v>
+        <v>72.68989972040069</v>
       </c>
       <c r="G13">
-        <v>2.140893762100848</v>
+        <v>3.81156920347534</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.081937838195806</v>
+        <v>11.56615265220604</v>
       </c>
       <c r="K13">
-        <v>13.5051809996243</v>
+        <v>17.128286492527</v>
       </c>
       <c r="L13">
-        <v>5.659950285128327</v>
+        <v>11.17927192196016</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.43685106730982</v>
+        <v>21.16958962927862</v>
       </c>
       <c r="C14">
-        <v>6.572250937822448</v>
+        <v>3.915379508727648</v>
       </c>
       <c r="D14">
-        <v>6.728787852545342</v>
+        <v>4.040955757214239</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>82.48375314432919</v>
+        <v>72.51055269078141</v>
       </c>
       <c r="G14">
-        <v>2.143200950325946</v>
+        <v>3.812220269322891</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.064671331899325</v>
+        <v>11.56396928922781</v>
       </c>
       <c r="K14">
-        <v>13.36575041706432</v>
+        <v>17.1268098584272</v>
       </c>
       <c r="L14">
-        <v>5.658541901647892</v>
+        <v>11.18655555412738</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.35554450782335</v>
+        <v>21.16554759683701</v>
       </c>
       <c r="C15">
-        <v>6.535155065225609</v>
+        <v>3.900177883601669</v>
       </c>
       <c r="D15">
-        <v>6.697595654802892</v>
+        <v>4.034309416527988</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>82.12611588751072</v>
+        <v>72.40054276787242</v>
       </c>
       <c r="G15">
-        <v>2.144614081262484</v>
+        <v>3.812621247534687</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.054139088071446</v>
+        <v>11.56264251854006</v>
       </c>
       <c r="K15">
-        <v>13.28005584299896</v>
+        <v>17.12601180350141</v>
       </c>
       <c r="L15">
-        <v>5.657822371104334</v>
+        <v>11.19105861095114</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.8907176249639</v>
+        <v>21.14441570064728</v>
       </c>
       <c r="C16">
-        <v>6.321223355685565</v>
+        <v>3.811717756558672</v>
       </c>
       <c r="D16">
-        <v>6.517659982634012</v>
+        <v>3.996468472507136</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>80.06605607364217</v>
+        <v>71.76785712659473</v>
       </c>
       <c r="G16">
-        <v>2.152714815739893</v>
+        <v>3.814952609685427</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.994436837362503</v>
+        <v>11.55520211377847</v>
       </c>
       <c r="K16">
-        <v>12.84088062408163</v>
+        <v>17.12307024424137</v>
       </c>
       <c r="L16">
-        <v>5.655835663760959</v>
+        <v>11.21750190616477</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.60653457327409</v>
+        <v>21.13326823538261</v>
       </c>
       <c r="C17">
-        <v>6.188694909285932</v>
+        <v>3.756254419070119</v>
       </c>
       <c r="D17">
-        <v>6.406176234498134</v>
+        <v>3.973485494948566</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>78.79265806579434</v>
+        <v>71.37782367719616</v>
       </c>
       <c r="G17">
-        <v>2.157690880598767</v>
+        <v>3.816412821216276</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.958373718766501</v>
+        <v>11.5507832150787</v>
       </c>
       <c r="K17">
-        <v>12.63782795158843</v>
+        <v>17.12272212719691</v>
       </c>
       <c r="L17">
-        <v>5.6564629669151</v>
+        <v>11.23429356221573</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.44343707591703</v>
+        <v>21.12752527768741</v>
       </c>
       <c r="C18">
-        <v>6.111963434408529</v>
+        <v>3.723916005471954</v>
       </c>
       <c r="D18">
-        <v>6.341634917189046</v>
+        <v>3.960355691287095</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>78.05664732288933</v>
+        <v>71.15283535275644</v>
       </c>
       <c r="G18">
-        <v>2.160556952445252</v>
+        <v>3.81726375457576</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.937829876507231</v>
+        <v>11.54829518392065</v>
       </c>
       <c r="K18">
-        <v>12.52162821662511</v>
+        <v>17.12305719140376</v>
       </c>
       <c r="L18">
-        <v>5.65747898492187</v>
+        <v>11.24416105421864</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.38827684839625</v>
+        <v>21.12569578144353</v>
       </c>
       <c r="C19">
-        <v>6.085894016372967</v>
+        <v>3.712891874168975</v>
       </c>
       <c r="D19">
-        <v>6.319709107050071</v>
+        <v>3.955925936732247</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>77.80682755065637</v>
+        <v>71.07655082104314</v>
       </c>
       <c r="G19">
-        <v>2.161528179574077</v>
+        <v>3.817553768561951</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.930907499448546</v>
+        <v>11.54746199609015</v>
       </c>
       <c r="K19">
-        <v>12.48238646311818</v>
+        <v>17.12326257207567</v>
       </c>
       <c r="L19">
-        <v>5.657933388384762</v>
+        <v>11.24753798446513</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.63674946481954</v>
+        <v>21.13438571394651</v>
       </c>
       <c r="C20">
-        <v>6.202854341117779</v>
+        <v>3.762203902750159</v>
       </c>
       <c r="D20">
-        <v>6.418086899791082</v>
+        <v>3.975922919242834</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>78.92858370142241</v>
+        <v>71.41941189534306</v>
       </c>
       <c r="G20">
-        <v>2.157160793285978</v>
+        <v>3.816256235502274</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.962191961679116</v>
+        <v>11.55124806923232</v>
       </c>
       <c r="K20">
-        <v>12.65938209127278</v>
+        <v>17.1227037841243</v>
       </c>
       <c r="L20">
-        <v>5.656327865946964</v>
+        <v>11.23248439380568</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.47585977265118</v>
+        <v>21.17156377089657</v>
       </c>
       <c r="C21">
-        <v>6.59001676607828</v>
+        <v>3.922645231264877</v>
       </c>
       <c r="D21">
-        <v>6.743725000613075</v>
+        <v>4.044147061142806</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>82.65506564831603</v>
+        <v>72.56326375409918</v>
       </c>
       <c r="G21">
-        <v>2.142523301526905</v>
+        <v>3.812028581054344</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.069733705300109</v>
+        <v>11.56460838705535</v>
       </c>
       <c r="K21">
-        <v>13.4067645112917</v>
+        <v>17.12722140414986</v>
       </c>
       <c r="L21">
-        <v>5.658925606657348</v>
+        <v>11.18440750119885</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.02757263399134</v>
+        <v>21.20178657266246</v>
       </c>
       <c r="C22">
-        <v>6.839257296858532</v>
+        <v>4.023566343403381</v>
       </c>
       <c r="D22">
-        <v>6.953162341871806</v>
+        <v>4.089437171369379</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>85.06003985544946</v>
+        <v>73.30404023846522</v>
       </c>
       <c r="G22">
-        <v>2.132957227202641</v>
+        <v>3.809363300267107</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.141965442114156</v>
+        <v>11.57381496726322</v>
       </c>
       <c r="K22">
-        <v>13.98034631212676</v>
+        <v>17.13493761446043</v>
       </c>
       <c r="L22">
-        <v>5.666966703942919</v>
+        <v>11.1548495446088</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.73279489596737</v>
+        <v>21.18511569623125</v>
       </c>
       <c r="C23">
-        <v>6.706542703947793</v>
+        <v>3.970064805404743</v>
       </c>
       <c r="D23">
-        <v>6.841672633295139</v>
+        <v>4.065205373939103</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>83.77915196983213</v>
+        <v>72.90934324369988</v>
       </c>
       <c r="G23">
-        <v>2.138064617332833</v>
+        <v>3.810776903559242</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.10322646985488</v>
+        <v>11.56885791975668</v>
       </c>
       <c r="K23">
-        <v>13.67534993976092</v>
+        <v>17.13038374590698</v>
       </c>
       <c r="L23">
-        <v>5.662068650663942</v>
+        <v>11.17045477518242</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.62308843059504</v>
+        <v>21.13387842745466</v>
       </c>
       <c r="C24">
-        <v>6.196454548509466</v>
+        <v>3.759515547996048</v>
       </c>
       <c r="D24">
-        <v>6.412703486393776</v>
+        <v>3.974820698865317</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>78.86714393501529</v>
+        <v>71.40061219576475</v>
       </c>
       <c r="G24">
-        <v>2.157400428988434</v>
+        <v>3.816326992265362</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.960465146215669</v>
+        <v>11.55103774527275</v>
       </c>
       <c r="K24">
-        <v>12.64963578996913</v>
+        <v>17.12271040989922</v>
       </c>
       <c r="L24">
-        <v>5.656386909226817</v>
+        <v>11.23330165302668</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.44009234933435</v>
+        <v>21.10418441855446</v>
       </c>
       <c r="C25">
-        <v>5.626672291939458</v>
+        <v>3.515721559698256</v>
       </c>
       <c r="D25">
-        <v>5.93387325338113</v>
+        <v>3.880797301617488</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>73.43211563792758</v>
+        <v>69.74891591301208</v>
       </c>
       <c r="G25">
-        <v>2.178424276068688</v>
+        <v>3.82273689839097</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.81399671322646</v>
+        <v>11.53386622927416</v>
       </c>
       <c r="K25">
-        <v>11.81282144935256</v>
+        <v>17.13489281124436</v>
       </c>
       <c r="L25">
-        <v>5.675061742114415</v>
+        <v>11.30909811784316</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_149/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_149/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.10438315076156</v>
+        <v>14.58275326966225</v>
       </c>
       <c r="C2">
-        <v>3.322157870623979</v>
+        <v>5.187267980480344</v>
       </c>
       <c r="D2">
-        <v>3.815026433025047</v>
+        <v>5.566118936960642</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>68.51717879731122</v>
+        <v>69.31226336512255</v>
       </c>
       <c r="G2">
-        <v>3.827825372342945</v>
+        <v>2.194207798522054</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.52299371725909</v>
+        <v>7.711814686962139</v>
       </c>
       <c r="K2">
-        <v>17.16141890428164</v>
+        <v>11.21701008590709</v>
       </c>
       <c r="L2">
-        <v>11.3718091587387</v>
+        <v>5.70771257819221</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.11827868237029</v>
+        <v>14.01224481411883</v>
       </c>
       <c r="C3">
-        <v>3.182415127181045</v>
+        <v>4.875900701733787</v>
       </c>
       <c r="D3">
-        <v>3.77283583236601</v>
+        <v>5.307016860236181</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>67.67545219562973</v>
+        <v>66.45023073840962</v>
       </c>
       <c r="G3">
-        <v>3.831506445824125</v>
+        <v>2.205162067225822</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.51673320975796</v>
+        <v>7.645757176656027</v>
       </c>
       <c r="K3">
-        <v>17.19030646397591</v>
+        <v>10.82699399744669</v>
       </c>
       <c r="L3">
-        <v>11.41862372721977</v>
+        <v>5.740536830810931</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.13358792487648</v>
+        <v>13.66808070831917</v>
       </c>
       <c r="C4">
-        <v>3.092480779927253</v>
+        <v>4.677723900176653</v>
       </c>
       <c r="D4">
-        <v>3.748175983357865</v>
+        <v>5.143006079367729</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>67.15613894465271</v>
+        <v>64.66079891049873</v>
       </c>
       <c r="G4">
-        <v>3.833882159496253</v>
+        <v>2.212034916694532</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.51343679520299</v>
+        <v>7.606673637373322</v>
       </c>
       <c r="K4">
-        <v>17.21340605080329</v>
+        <v>10.59483389775898</v>
       </c>
       <c r="L4">
-        <v>11.44949937710048</v>
+        <v>5.76563519983132</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.14152853120866</v>
+        <v>13.52954018873967</v>
       </c>
       <c r="C5">
-        <v>3.054809695380171</v>
+        <v>4.595172030272492</v>
       </c>
       <c r="D5">
-        <v>3.738449963671115</v>
+        <v>5.074934262216416</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>66.94403437763405</v>
+        <v>63.92399752071795</v>
       </c>
       <c r="G5">
-        <v>3.834879443448906</v>
+        <v>2.214875270440806</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.51223138172048</v>
+        <v>7.591104698755428</v>
       </c>
       <c r="K5">
-        <v>17.22416451996093</v>
+        <v>10.50215555009412</v>
       </c>
       <c r="L5">
-        <v>11.46261781923382</v>
+        <v>5.777059845351745</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.14294977005848</v>
+        <v>13.50664410022996</v>
       </c>
       <c r="C6">
-        <v>3.048493255434859</v>
+        <v>4.581355229719356</v>
       </c>
       <c r="D6">
-        <v>3.736854750424613</v>
+        <v>5.06355652070451</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>66.90878982881756</v>
+        <v>63.80120991921997</v>
       </c>
       <c r="G6">
-        <v>3.835046806279481</v>
+        <v>2.215349375882982</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.51203955845483</v>
+        <v>7.588540733679874</v>
       </c>
       <c r="K6">
-        <v>17.22603209535286</v>
+        <v>10.48688561893332</v>
       </c>
       <c r="L6">
-        <v>11.46482853443361</v>
+        <v>5.779027879601776</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.13368812734735</v>
+        <v>13.66620514774327</v>
       </c>
       <c r="C7">
-        <v>3.091976848617787</v>
+        <v>4.676617875871167</v>
       </c>
       <c r="D7">
-        <v>3.74804349430644</v>
+        <v>5.142093036551279</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>67.15328018037408</v>
+        <v>64.65089217218033</v>
       </c>
       <c r="G7">
-        <v>3.833895490994919</v>
+        <v>2.212073058920081</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.51341997993826</v>
+        <v>7.606462236930433</v>
       </c>
       <c r="K7">
-        <v>17.21354570143606</v>
+        <v>10.5935760719873</v>
       </c>
       <c r="L7">
-        <v>11.44967412472681</v>
+        <v>5.76578448994732</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.10776666965025</v>
+        <v>14.38486402305071</v>
       </c>
       <c r="C8">
-        <v>3.27484137273966</v>
+        <v>5.081337246721326</v>
       </c>
       <c r="D8">
-        <v>3.800226855091859</v>
+        <v>5.477800244602349</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>68.22755569055819</v>
+        <v>68.33236075903507</v>
       </c>
       <c r="G8">
-        <v>3.829070698537482</v>
+        <v>2.197956022943581</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.52072157933398</v>
+        <v>7.688723447174535</v>
       </c>
       <c r="K8">
-        <v>17.17026457670861</v>
+        <v>11.08106684961464</v>
       </c>
       <c r="L8">
-        <v>11.38750872223888</v>
+        <v>5.717975477859421</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.11076217555098</v>
+        <v>15.83664520149654</v>
       </c>
       <c r="C9">
-        <v>3.600050706767215</v>
+        <v>5.821511178657326</v>
       </c>
       <c r="D9">
-        <v>3.911963204974226</v>
+        <v>6.09745660012912</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>70.30807762262626</v>
+        <v>75.28146392767168</v>
       </c>
       <c r="G9">
-        <v>3.820520733592817</v>
+        <v>2.171305029088041</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.5393758825632</v>
+        <v>7.862406022320475</v>
       </c>
       <c r="K9">
-        <v>17.12805805455895</v>
+        <v>12.09164440894267</v>
       </c>
       <c r="L9">
-        <v>11.28249488535362</v>
+        <v>5.665681020628256</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.1457782351442</v>
+        <v>16.92319314229918</v>
       </c>
       <c r="C10">
-        <v>3.817987084996174</v>
+        <v>6.336279598000055</v>
       </c>
       <c r="D10">
-        <v>3.999102783868744</v>
+        <v>6.530325344263295</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>71.8122709487286</v>
+        <v>80.21087693628368</v>
       </c>
       <c r="G10">
-        <v>3.814787485306405</v>
+        <v>2.152147438593948</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.55571359603225</v>
+        <v>7.998579376880436</v>
       </c>
       <c r="K10">
-        <v>17.12318249928035</v>
+        <v>12.86413054419008</v>
       </c>
       <c r="L10">
-        <v>11.21561422746843</v>
+        <v>5.655854526364255</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.16880881902725</v>
+        <v>17.42129839917554</v>
       </c>
       <c r="C11">
-        <v>3.912477713400484</v>
+        <v>6.565162052218882</v>
       </c>
       <c r="D11">
-        <v>4.039683850802437</v>
+        <v>6.722827416197244</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>72.48952451255221</v>
+        <v>82.41540233419977</v>
       </c>
       <c r="G11">
-        <v>3.812296819165616</v>
+        <v>2.143471186049433</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.56371494097251</v>
+        <v>8.062654652784408</v>
       </c>
       <c r="K11">
-        <v>17.12665093280735</v>
+        <v>13.34938026976402</v>
       </c>
       <c r="L11">
-        <v>11.18741420755264</v>
+        <v>5.65839586337296</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.17854696324843</v>
+        <v>17.61048048905572</v>
       </c>
       <c r="C12">
-        <v>3.947584241158272</v>
+        <v>6.651174233926234</v>
       </c>
       <c r="D12">
-        <v>4.055172516015352</v>
+        <v>6.795137633173773</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>72.74483084958548</v>
+        <v>83.24494362350872</v>
       </c>
       <c r="G12">
-        <v>3.811370434348276</v>
+        <v>2.140186224394641</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.56682637344614</v>
+        <v>8.087250095289614</v>
       </c>
       <c r="K12">
-        <v>17.12878174084353</v>
+        <v>13.54782108930444</v>
       </c>
       <c r="L12">
-        <v>11.17705512057089</v>
+        <v>5.660439832832066</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.17640453068202</v>
+        <v>17.56971115391298</v>
       </c>
       <c r="C13">
-        <v>3.940053531244382</v>
+        <v>6.632677593069598</v>
       </c>
       <c r="D13">
-        <v>4.051831572519639</v>
+        <v>6.77958951587468</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>72.68989972040069</v>
+        <v>83.06651675367451</v>
       </c>
       <c r="G13">
-        <v>3.81156920347534</v>
+        <v>2.140893762100727</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.56615265220604</v>
+        <v>8.081937838195763</v>
       </c>
       <c r="K13">
-        <v>17.128286492527</v>
+        <v>13.50518099962428</v>
       </c>
       <c r="L13">
-        <v>11.17927192196016</v>
+        <v>5.659950285128216</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.16958962927862</v>
+        <v>17.43685106730973</v>
       </c>
       <c r="C14">
-        <v>3.915379508727648</v>
+        <v>6.572250937822563</v>
       </c>
       <c r="D14">
-        <v>4.040955757214239</v>
+        <v>6.728787852545446</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>72.51055269078141</v>
+        <v>82.48375314432957</v>
       </c>
       <c r="G14">
-        <v>3.812220269322891</v>
+        <v>2.143200950325924</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.56396928922781</v>
+        <v>8.064671331899323</v>
       </c>
       <c r="K14">
-        <v>17.1268098584272</v>
+        <v>13.36575041706435</v>
       </c>
       <c r="L14">
-        <v>11.18655555412738</v>
+        <v>5.65854190164785</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.16554759683701</v>
+        <v>17.35554450782333</v>
       </c>
       <c r="C15">
-        <v>3.900177883601669</v>
+        <v>6.535155065225529</v>
       </c>
       <c r="D15">
-        <v>4.034309416527988</v>
+        <v>6.69759565480298</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>72.40054276787242</v>
+        <v>82.12611588751059</v>
       </c>
       <c r="G15">
-        <v>3.812621247534687</v>
+        <v>2.144614081262349</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.56264251854006</v>
+        <v>8.054139088071462</v>
       </c>
       <c r="K15">
-        <v>17.12601180350141</v>
+        <v>13.28005584299899</v>
       </c>
       <c r="L15">
-        <v>11.19105861095114</v>
+        <v>5.657822371104335</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.14441570064728</v>
+        <v>16.89071762496394</v>
       </c>
       <c r="C16">
-        <v>3.811717756558672</v>
+        <v>6.321223355685822</v>
       </c>
       <c r="D16">
-        <v>3.996468472507136</v>
+        <v>6.517659982633936</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>71.76785712659473</v>
+        <v>80.06605607364186</v>
       </c>
       <c r="G16">
-        <v>3.814952609685427</v>
+        <v>2.152714815740011</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.55520211377847</v>
+        <v>7.994436837362449</v>
       </c>
       <c r="K16">
-        <v>17.12307024424137</v>
+        <v>12.84088062408168</v>
       </c>
       <c r="L16">
-        <v>11.21750190616477</v>
+        <v>5.655835663760915</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.13326823538261</v>
+        <v>16.60653457327415</v>
       </c>
       <c r="C17">
-        <v>3.756254419070119</v>
+        <v>6.188694909285862</v>
       </c>
       <c r="D17">
-        <v>3.973485494948566</v>
+        <v>6.406176234498183</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>71.37782367719616</v>
+        <v>78.79265806579464</v>
       </c>
       <c r="G17">
-        <v>3.816412821216276</v>
+        <v>2.157690880598902</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.5507832150787</v>
+        <v>7.958373718766492</v>
       </c>
       <c r="K17">
-        <v>17.12272212719691</v>
+        <v>12.63782795158841</v>
       </c>
       <c r="L17">
-        <v>11.23429356221573</v>
+        <v>5.65646296691506</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.12752527768741</v>
+        <v>16.44343707591699</v>
       </c>
       <c r="C18">
-        <v>3.723916005471954</v>
+        <v>6.11196343440866</v>
       </c>
       <c r="D18">
-        <v>3.960355691287095</v>
+        <v>6.341634917189038</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>71.15283535275644</v>
+        <v>78.05664732288939</v>
       </c>
       <c r="G18">
-        <v>3.81726375457576</v>
+        <v>2.160556952445496</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.54829518392065</v>
+        <v>7.937829876507138</v>
       </c>
       <c r="K18">
-        <v>17.12305719140376</v>
+        <v>12.52162821662508</v>
       </c>
       <c r="L18">
-        <v>11.24416105421864</v>
+        <v>5.657478984921767</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.12569578144353</v>
+        <v>16.38827684839624</v>
       </c>
       <c r="C19">
-        <v>3.712891874168975</v>
+        <v>6.085894016372845</v>
       </c>
       <c r="D19">
-        <v>3.955925936732247</v>
+        <v>6.319709107050151</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>71.07655082104314</v>
+        <v>77.80682755065635</v>
       </c>
       <c r="G19">
-        <v>3.817553768561951</v>
+        <v>2.161528179574078</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.54746199609015</v>
+        <v>7.930907499448617</v>
       </c>
       <c r="K19">
-        <v>17.12326257207567</v>
+        <v>12.48238646311816</v>
       </c>
       <c r="L19">
-        <v>11.24753798446513</v>
+        <v>5.657933388384849</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.13438571394651</v>
+        <v>16.63674946481958</v>
       </c>
       <c r="C20">
-        <v>3.762203902750159</v>
+        <v>6.202854341117427</v>
       </c>
       <c r="D20">
-        <v>3.975922919242834</v>
+        <v>6.418086899791095</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>71.41941189534306</v>
+        <v>78.92858370142247</v>
       </c>
       <c r="G20">
-        <v>3.816256235502274</v>
+        <v>2.157160793285575</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.55124806923232</v>
+        <v>7.962191961679064</v>
       </c>
       <c r="K20">
-        <v>17.1227037841243</v>
+        <v>12.65938209127281</v>
       </c>
       <c r="L20">
-        <v>11.23248439380568</v>
+        <v>5.656327865946965</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.17156377089657</v>
+        <v>17.47585977265113</v>
       </c>
       <c r="C21">
-        <v>3.922645231264877</v>
+        <v>6.590016766078158</v>
       </c>
       <c r="D21">
-        <v>4.044147061142806</v>
+        <v>6.743725000613295</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>72.56326375409918</v>
+        <v>82.65506564831631</v>
       </c>
       <c r="G21">
-        <v>3.812028581054344</v>
+        <v>2.142523301526775</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.56460838705535</v>
+        <v>8.069733705300193</v>
       </c>
       <c r="K21">
-        <v>17.12722140414986</v>
+        <v>13.40676451129174</v>
       </c>
       <c r="L21">
-        <v>11.18440750119885</v>
+        <v>5.658925606657269</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.20178657266246</v>
+        <v>18.02757263399138</v>
       </c>
       <c r="C22">
-        <v>4.023566343403381</v>
+        <v>6.839257296858399</v>
       </c>
       <c r="D22">
-        <v>4.089437171369379</v>
+        <v>6.953162341871799</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>73.30404023846522</v>
+        <v>85.06003985544925</v>
       </c>
       <c r="G22">
-        <v>3.809363300267107</v>
+        <v>2.132957227202244</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.57381496726322</v>
+        <v>8.141965442114083</v>
       </c>
       <c r="K22">
-        <v>17.13493761446043</v>
+        <v>13.98034631212674</v>
       </c>
       <c r="L22">
-        <v>11.1548495446088</v>
+        <v>5.666966703942794</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.18511569623125</v>
+        <v>17.73279489596738</v>
       </c>
       <c r="C23">
-        <v>3.970064805404743</v>
+        <v>6.706542703947662</v>
       </c>
       <c r="D23">
-        <v>4.065205373939103</v>
+        <v>6.841672633295238</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>72.90934324369988</v>
+        <v>83.77915196983187</v>
       </c>
       <c r="G23">
-        <v>3.810776903559242</v>
+        <v>2.138064617332833</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.56885791975668</v>
+        <v>8.103226469854954</v>
       </c>
       <c r="K23">
-        <v>17.13038374590698</v>
+        <v>13.67534993976096</v>
       </c>
       <c r="L23">
-        <v>11.17045477518242</v>
+        <v>5.662068650664008</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.13387842745466</v>
+        <v>16.623088430595</v>
       </c>
       <c r="C24">
-        <v>3.759515547996048</v>
+        <v>6.196454548509474</v>
       </c>
       <c r="D24">
-        <v>3.974820698865317</v>
+        <v>6.412703486393653</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>71.40061219576475</v>
+        <v>78.86714393501501</v>
       </c>
       <c r="G24">
-        <v>3.816326992265362</v>
+        <v>2.157400428988568</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.55103774527275</v>
+        <v>7.960465146215569</v>
       </c>
       <c r="K24">
-        <v>17.12271040989922</v>
+        <v>12.64963578996912</v>
       </c>
       <c r="L24">
-        <v>11.23330165302668</v>
+        <v>5.656386909226788</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.10418441855446</v>
+        <v>15.44009234933433</v>
       </c>
       <c r="C25">
-        <v>3.515721559698256</v>
+        <v>5.62667229193928</v>
       </c>
       <c r="D25">
-        <v>3.880797301617488</v>
+        <v>5.933873253381158</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.74891591301208</v>
+        <v>73.43211563792757</v>
       </c>
       <c r="G25">
-        <v>3.82273689839097</v>
+        <v>2.178424276068694</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.53386622927416</v>
+        <v>7.813996713226453</v>
       </c>
       <c r="K25">
-        <v>17.13489281124436</v>
+        <v>11.81282144935254</v>
       </c>
       <c r="L25">
-        <v>11.30909811784316</v>
+        <v>5.675061742114428</v>
       </c>
       <c r="M25">
         <v>0</v>
